--- a/biology/Zoologie/Eueides_vibilia/Eueides_vibilia.xlsx
+++ b/biology/Zoologie/Eueides_vibilia/Eueides_vibilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eueides vibilia est une espèce de lépidoptères appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Eueides.
 </t>
@@ -511,55 +523,55 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eueides vibilia a été décrit par Jean-Baptiste Godart en 1819 sous le nom de Cethosia vibilia.
-Synonymes : Colaenis vibilia ; Hübner, 1824[1].
-Sous-espèces
-Eueides vibilia vibilia; au Brésil.
+Synonymes : Colaenis vibilia ; Hübner, 1824.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eueides vibilia vibilia; au Brésil.
 Eueides vibilia louisi; Brévignon, 2006; en Guyane.
 Eueides vibilia mereaui (Hübner, 1823)
 Eueides vibilia unifasciatus Butler, 1873 ; en Équateur et au Brésil.
 Eueides vibilia vialis Stichel, 1903 ; au Mexique, au Guatemala, au Costa Rica et à Panama.
 Eueides vibilia vicinalis Stichel, 1903 ; en Équateur.
-Eueides vibilia  ssp en Colombie[1].
-Noms vernaculaires
-Eueides vibilia se nomme Vibilia Longwing en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eueides_vibilia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_vibilia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C 'est un grand papillon d'une envergure d'environ 60 mm, au dessus orange très largement bordé de marron. Aux antérieures il ne reste qu'une flaque orange et la large bordure marron des postérieures se prolonge de marron le long des veines[3].
-Le revers est semblable en plus terne
-Chenille
-Elle est jaune avec des points noirs, des scolis noirs et une tête noire[4].
-</t>
+Eueides vibilia  ssp en Colombie.</t>
         </is>
       </c>
     </row>
@@ -584,14 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago passe la majorité de son temps dans la canopée[4].
-Plantes hôtes
-Ses plantes hôtes sont des Passifloraceae, Mitostemma et Passiflora dont Passiflora pittieri[4].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides vibilia se nomme Vibilia Longwing en anglais.
 </t>
         </is>
       </c>
@@ -617,14 +633,192 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 'est un grand papillon d'une envergure d'environ 60 mm, au dessus orange très largement bordé de marron. Aux antérieures il ne reste qu'une flaque orange et la large bordure marron des postérieures se prolonge de marron le long des veines.
+Le revers est semblable en plus terne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est jaune avec des points noirs, des scolis noirs et une tête noire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago passe la majorité de son temps dans la canopée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Passifloraceae, Mitostemma et Passiflora dont Passiflora pittieri.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside du sud du Mexique au Brésil. Il est présent au Mexique, au Guatemala, au Costa Rica, à Panama,  en Colombie,  en Équateur,  au Brésil et en Guyane[1].
-Biotope
-Son habitat est la forêt jusqu'à 800 mètres d'altitude[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside du sud du Mexique au Brésil. Il est présent au Mexique, au Guatemala, au Costa Rica, à Panama,  en Colombie,  en Équateur,  au Brésil et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_vibilia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt jusqu'à 800 mètres d'altitude.
 Sur les autres projets Wikimedia :
 Eueides vibilia, sur Wikimedia CommonsEueides vibilia, sur Wikispecies
 </t>
